--- a/ETl Requirement.xlsx
+++ b/ETl Requirement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gowtham\Desktop\uci-irv-data-pt-12-2020-u-c\13-ETL-Project\1\Activities\02-Stu_ETL_Pandas_Local\Solved\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gowtham\Desktop\ETL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{134787CB-CDD7-4D38-9CC0-5DCEF0554BD8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8243DAFE-6067-429C-9D00-7B5000E61737}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="1155" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{5E271368-DDAF-4D64-9DEC-134B2F504F15}"/>
+    <workbookView xWindow="3360" yWindow="1155" windowWidth="23010" windowHeight="12630" xr2:uid="{5E271368-DDAF-4D64-9DEC-134B2F504F15}"/>
   </bookViews>
   <sheets>
     <sheet name="dow_df" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="45">
   <si>
     <t>Connection</t>
   </si>
@@ -53,9 +53,6 @@
     <t>IP</t>
   </si>
   <si>
-    <t>postges</t>
-  </si>
-  <si>
     <t>127.0.0.1</t>
   </si>
   <si>
@@ -68,12 +65,6 @@
     <t>Target:</t>
   </si>
   <si>
-    <t>Path:</t>
-  </si>
-  <si>
-    <t>../Resources/LicensePremise.csv</t>
-  </si>
-  <si>
     <t>source columns</t>
   </si>
   <si>
@@ -101,15 +92,6 @@
     <t>target table</t>
   </si>
   <si>
-    <t>This table must be loaded after the county table.</t>
-  </si>
-  <si>
-    <t>This table must be loaded before the county table.</t>
-  </si>
-  <si>
-    <t>../Resources/CountryLicenseCount.csv</t>
-  </si>
-  <si>
     <t>business rules:</t>
   </si>
   <si>
@@ -171,6 +153,24 @@
   </si>
   <si>
     <t>datetime64[ns]</t>
+  </si>
+  <si>
+    <t>dow_stock_info.csv, ndq_m_stock_info.csv</t>
+  </si>
+  <si>
+    <t>postgres</t>
+  </si>
+  <si>
+    <t>Merged Table</t>
+  </si>
+  <si>
+    <t>Merge second</t>
+  </si>
+  <si>
+    <t>merge first</t>
+  </si>
+  <si>
+    <t>Change object to datetime</t>
   </si>
 </sst>
 </file>
@@ -672,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF266A81-6966-48EF-B6CE-5A8145F5ECDC}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,12 +693,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -730,12 +730,12 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>56384</v>
@@ -746,7 +746,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -754,176 +754,171 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -932,12 +927,12 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -969,12 +964,17 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C45EC459-D3D9-4AF0-B238-EA7CD905A38D}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1008,12 +1008,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1037,7 +1037,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1045,12 +1045,12 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>56384</v>
@@ -1061,7 +1061,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -1069,176 +1069,171 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1247,12 +1242,12 @@
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -1294,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28E319A1-816B-4D69-82FC-CBF8ACE3EE37}">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,12 +1308,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>0</v>
@@ -1329,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -1342,7 +1337,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -1350,12 +1345,12 @@
         <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>56384</v>
@@ -1366,7 +1361,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>0</v>
@@ -1374,176 +1369,171 @@
       <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
+      <c r="C11" s="1"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -1552,12 +1542,12 @@
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -1589,7 +1579,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
